--- a/refactoring/setup-sheet/Master Setup Sheet.xlsx
+++ b/refactoring/setup-sheet/Master Setup Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strath.sharepoint.com/sites/MAE_USMFormulaStudent/Shared Documents/USM Sharepoint Drive/Vehicle Dynamics/03 - Testing/Setup Sheets/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Vehicle-Dynamics-Resources\refactoring\setup-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_47EEB375FEC3BCB854B1EB8D329C78CE869FE5A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32B0AAF-572C-4694-9C49-5EF452E19704}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3DD6EA-C216-43FB-AAB7-3452313F45F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USM25 Master Setup" sheetId="2" r:id="rId1"/>
@@ -1923,7 +1923,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2261,14 +2261,14 @@
   <dimension ref="A1:AB71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.68359375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="10.7109375" style="3"/>
-    <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="3"/>
+    <col min="1" max="6" width="10.68359375" style="3"/>
+    <col min="7" max="7" width="12.83984375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.68359375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" customHeight="1">
@@ -2421,7 +2421,7 @@
       <c r="P6" s="217"/>
       <c r="Q6" s="218">
         <f ca="1">NOW()</f>
-        <v>45944.978518634256</v>
+        <v>45959.535332523148</v>
       </c>
       <c r="R6" s="217"/>
       <c r="S6" s="217"/>
@@ -4511,26 +4511,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2d6c1873-4f13-47c3-848a-5f37daf61841" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c28c48b1-acf2-4e61-aa34-7e72f52ee03b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C1A4ECE5E81B224A92E43E6098A12874" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bf44349f06787be4fab1b489a2cc82dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c28c48b1-acf2-4e61-aa34-7e72f52ee03b" xmlns:ns3="2d6c1873-4f13-47c3-848a-5f37daf61841" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e5b423e0b77b01fa6de3ee08c5d4cae" ns2:_="" ns3:_="">
     <xsd:import namespace="c28c48b1-acf2-4e61-aa34-7e72f52ee03b"/>
@@ -4771,14 +4751,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2d6c1873-4f13-47c3-848a-5f37daf61841" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c28c48b1-acf2-4e61-aa34-7e72f52ee03b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20BBC9-CA9C-4A56-825C-AC3CB0106651}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E30554-25B3-43DD-9D74-F49D2F0DC0A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c28c48b1-acf2-4e61-aa34-7e72f52ee03b"/>
+    <ds:schemaRef ds:uri="2d6c1873-4f13-47c3-848a-5f37daf61841"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5F50C60-F494-4109-A6A6-00064CE63F3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20BBC9-CA9C-4A56-825C-AC3CB0106651}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d6c1873-4f13-47c3-848a-5f37daf61841"/>
+    <ds:schemaRef ds:uri="c28c48b1-acf2-4e61-aa34-7e72f52ee03b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E30554-25B3-43DD-9D74-F49D2F0DC0A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5F50C60-F494-4109-A6A6-00064CE63F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>